--- a/tgfiles/manual_catch.xlsx
+++ b/tgfiles/manual_catch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maia Kapur\Dropbox\UW\assessments\china_2019_update\chinarock-update-2019\tgfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61093B16-5847-4058-B87A-3BF1273C008C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39911B2C-767B-4F73-89E4-6A3D051A7939}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11430" xr2:uid="{9894946E-BFAD-4E5E-AB06-E290037ABA27}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>north</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>south</t>
+  </si>
+  <si>
+    <t>Total WA (all rec)</t>
+  </si>
+  <si>
+    <t>Total Central REC</t>
+  </si>
+  <si>
+    <t>Total ctl COMM</t>
+  </si>
+  <si>
+    <t>South REC</t>
+  </si>
+  <si>
+    <t>SOUTH COMM</t>
   </si>
 </sst>
 </file>
@@ -139,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -188,6 +203,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD938BF-137D-437E-8400-85A6B010A0EA}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,6 +858,379 @@
         <v>13.700000000000001</v>
       </c>
     </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
+        <v>2015</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="E21">
+        <f>SUM(B21:D21)</f>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E24" si="3">SUM(B22:D22)</f>
+        <v>2.0300000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.34</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>2.6799999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.47</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
+        <v>2015</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="H26">
+        <f>SUM(B26:G26)</f>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.32</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H29" si="4">SUM(B27:G27)</f>
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>3.7300000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
+        <v>2015</v>
+      </c>
+      <c r="B31">
+        <f>M7-H26</f>
+        <v>3.0199999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:B34" si="5">M8-H27</f>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="5"/>
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="5"/>
+        <v>5.6099999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18">
+        <v>2015</v>
+      </c>
+      <c r="B36" s="9">
+        <v>5</v>
+      </c>
+      <c r="C36" s="10">
+        <v>5.26</v>
+      </c>
+      <c r="D36">
+        <f>SUM(B36:C36)</f>
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B37" s="11">
+        <v>5</v>
+      </c>
+      <c r="C37" s="12">
+        <v>5.26</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:D39" si="6">SUM(B37:C37)</f>
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B38" s="11">
+        <v>5.29</v>
+      </c>
+      <c r="C38" s="12">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="6"/>
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B39" s="11">
+        <v>7.01</v>
+      </c>
+      <c r="C39" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="6"/>
+        <v>12.309999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1.46</v>
+      </c>
+      <c r="E41">
+        <f>SUM(B41:D41)</f>
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B42" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="D42" s="11">
+        <v>1.46</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42:E44" si="7">SUM(B42:D42)</f>
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B43" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="C43" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="7"/>
+        <v>1.6600000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B44" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="7"/>
+        <v>1.3900000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
